--- a/src/staging file/test_w_list.xlsx
+++ b/src/staging file/test_w_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="843">
   <si>
     <t>werkorder</t>
   </si>
@@ -41,9 +41,6 @@
     <t>sbs</t>
   </si>
   <si>
-    <t>sbs2</t>
-  </si>
-  <si>
     <t>sbs omschrijving</t>
   </si>
   <si>
@@ -53,69 +50,87 @@
     <t>locatie omschrijving</t>
   </si>
   <si>
+    <t>asset nummer 2</t>
+  </si>
+  <si>
+    <t>asset beschrijving 2</t>
+  </si>
+  <si>
+    <t>sbs 2</t>
+  </si>
+  <si>
+    <t>sbs 2 omschrijving</t>
+  </si>
+  <si>
+    <t>locatie 2</t>
+  </si>
+  <si>
+    <t>locatie 2 omschrijving</t>
+  </si>
+  <si>
+    <t>probleemcode</t>
+  </si>
+  <si>
+    <t>beschrijving probleem</t>
+  </si>
+  <si>
+    <t>oorzaak code</t>
+  </si>
+  <si>
+    <t>beschrijving oorzaak</t>
+  </si>
+  <si>
+    <t>oplos code</t>
+  </si>
+  <si>
+    <t>oplossing beschrijving</t>
+  </si>
+  <si>
+    <t>uitgevoerde werkzaamheden</t>
+  </si>
+  <si>
+    <t>type melding (Storing/Incident/Preventief/Onterecht)</t>
+  </si>
+  <si>
+    <t>tijdstip monteur ter plaatse</t>
+  </si>
+  <si>
+    <t>streefdatum start</t>
+  </si>
+  <si>
+    <t>geplande start</t>
+  </si>
+  <si>
+    <t>werkelijke start</t>
+  </si>
+  <si>
+    <t>tijdstip einde werkzaamheden</t>
+  </si>
+  <si>
+    <t>tijdstip afmelding</t>
+  </si>
+  <si>
+    <t>tijdstip validatie</t>
+  </si>
+  <si>
+    <t>funcitoneel herstel</t>
+  </si>
+  <si>
+    <t>definitief herstel</t>
+  </si>
+  <si>
+    <t>is financieel nadeel</t>
+  </si>
+  <si>
+    <t>gmblocation3</t>
+  </si>
+  <si>
+    <t>gemeld asset</t>
+  </si>
+  <si>
     <t>vestiging</t>
   </si>
   <si>
-    <t>probleemcode</t>
-  </si>
-  <si>
-    <t>beschrijving probleem</t>
-  </si>
-  <si>
-    <t>oorzaak code</t>
-  </si>
-  <si>
-    <t>beschrijving oorzaak</t>
-  </si>
-  <si>
-    <t>oplos code</t>
-  </si>
-  <si>
-    <t>oplossing beschrijving</t>
-  </si>
-  <si>
-    <t>uitgevoerde werkzaamheden</t>
-  </si>
-  <si>
-    <t>type melding (Storing/Incident/Preventief/Onterecht)</t>
-  </si>
-  <si>
-    <t>tijdstip monteur ter plaatse</t>
-  </si>
-  <si>
-    <t>streefdatum start</t>
-  </si>
-  <si>
-    <t>geplande start</t>
-  </si>
-  <si>
-    <t>werkelijke start</t>
-  </si>
-  <si>
-    <t>tijdstip einde werkzaamheden</t>
-  </si>
-  <si>
-    <t>tijdstip afmelding</t>
-  </si>
-  <si>
-    <t>tijdstip validatie</t>
-  </si>
-  <si>
-    <t>funcitoneel herstel</t>
-  </si>
-  <si>
-    <t>definitief herstel</t>
-  </si>
-  <si>
-    <t>is financieel nadeel</t>
-  </si>
-  <si>
-    <t>gmblocation3</t>
-  </si>
-  <si>
-    <t>gemeld asset</t>
-  </si>
-  <si>
     <t>1178992</t>
   </si>
   <si>
@@ -1220,27 +1235,12 @@
     <t>61CM6304 - Camera CT2-O1</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>38-07</t>
-  </si>
-  <si>
     <t>45-02</t>
   </si>
   <si>
     <t>86-22</t>
   </si>
   <si>
-    <t>61-06</t>
-  </si>
-  <si>
-    <t>61-29</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
     <t>47A-13</t>
   </si>
   <si>
@@ -1265,102 +1265,63 @@
     <t>45-04</t>
   </si>
   <si>
-    <t>88-01</t>
-  </si>
-  <si>
     <t>41-07</t>
   </si>
   <si>
+    <t>21-01</t>
+  </si>
+  <si>
+    <t>45-12</t>
+  </si>
+  <si>
+    <t>45-13</t>
+  </si>
+  <si>
+    <t>46B-04</t>
+  </si>
+  <si>
+    <t>71-01</t>
+  </si>
+  <si>
+    <t>67-03</t>
+  </si>
+  <si>
+    <t>45-08</t>
+  </si>
+  <si>
+    <t>74-07</t>
+  </si>
+  <si>
     <t>43-05</t>
   </si>
   <si>
-    <t>21-01</t>
-  </si>
-  <si>
-    <t>45-12</t>
-  </si>
-  <si>
-    <t>62-07</t>
-  </si>
-  <si>
-    <t>45-13</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>46B-04</t>
-  </si>
-  <si>
-    <t>71-01</t>
+    <t>46A-08</t>
+  </si>
+  <si>
+    <t>45-10</t>
+  </si>
+  <si>
+    <t>74-05</t>
+  </si>
+  <si>
+    <t>74-01</t>
   </si>
   <si>
     <t>41-17</t>
   </si>
   <si>
-    <t>67-03</t>
-  </si>
-  <si>
-    <t>45-08</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>74-07</t>
-  </si>
-  <si>
-    <t>48-03</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>46A-08</t>
-  </si>
-  <si>
-    <t>45-10</t>
-  </si>
-  <si>
-    <t>61-07</t>
-  </si>
-  <si>
-    <t>61-01</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>74-05</t>
-  </si>
-  <si>
-    <t>61-24</t>
-  </si>
-  <si>
-    <t>74-01</t>
-  </si>
-  <si>
     <t>46A-07</t>
   </si>
   <si>
     <t>84-15</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>45-05</t>
   </si>
   <si>
     <t>51 EN 53-06</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>41-18</t>
   </si>
   <si>
@@ -1370,97 +1331,100 @@
     <t>61-02</t>
   </si>
   <si>
-    <t>61-17</t>
-  </si>
-  <si>
-    <t>Afsluitboomkast (boom 2A)</t>
-  </si>
-  <si>
-    <t>Systeemkast ventilatiegebouw noord</t>
-  </si>
-  <si>
-    <t>Kast A08 RPK14_1 / 14_2 2.151BBL</t>
-  </si>
-  <si>
-    <t>Regelkast klimaat vent.gebouw zuid</t>
-  </si>
-  <si>
-    <t>Antenne C2000-1</t>
-  </si>
-  <si>
-    <t>Kast A10 TSG2 30,015PWn</t>
-  </si>
-  <si>
-    <t>Besturingskast DOV</t>
-  </si>
-  <si>
-    <t>Intercomkast VTTI station 9</t>
-  </si>
-  <si>
-    <t>Camera-PTZ-IM-A10W</t>
-  </si>
-  <si>
-    <t>Afsluitboom</t>
-  </si>
-  <si>
-    <t>Kast A10 MSG2 27,190HRR portaal 4</t>
-  </si>
-  <si>
-    <t>LED armatuur C2</t>
-  </si>
-  <si>
-    <t>VEVA boom</t>
-  </si>
-  <si>
-    <t>Smoorklep koelmachine 1</t>
-  </si>
-  <si>
-    <t>OVT-O2-07 kast geluidsbakeninstallatie</t>
-  </si>
-  <si>
-    <t>ASD-73 (tbv aspiratiesysteem) MTK CT1</t>
-  </si>
-  <si>
-    <t>A10 luspaar 21_1  30,610 R5 O2 raai 52</t>
-  </si>
-  <si>
-    <t>CADO boom</t>
-  </si>
-  <si>
-    <t>OVT-O2-06 kast geluidsbakeninstallatie</t>
-  </si>
-  <si>
-    <t>Neven bedieningpaneel nbdp DG-Z</t>
-  </si>
-  <si>
-    <t>Asd-201 (tbv aspiratiesysteem) DG-N</t>
-  </si>
-  <si>
-    <t>Afsluitboom 2A</t>
-  </si>
-  <si>
-    <t>Kast A10 OGK-OS 32,351BBR portaal 40</t>
-  </si>
-  <si>
-    <t>VTTI 10b, switch: DVM-2</t>
-  </si>
-  <si>
-    <t>Besturings-/hydrauliekkast</t>
-  </si>
-  <si>
-    <t>Expansievat</t>
-  </si>
-  <si>
-    <t>Kast A08 MSG1 1,625VWf portaal 49</t>
-  </si>
-  <si>
-    <t>A10 luspaar 1_1  29,030 R5 O2 raai 1</t>
-  </si>
-  <si>
-    <t>Omzetter voeding asd 34 CT2 MTK dienstgang</t>
-  </si>
-  <si>
-    <t>Camera CT2-O1</t>
+    <t>(AB CT1-N-02A/02B) CT1-W2 hoofdrijbaan</t>
+  </si>
+  <si>
+    <t>Besturingssysteem VG-N</t>
+  </si>
+  <si>
+    <t>Rotatiepaneel 14-1 A08 2.151 HRL3 en 4 en 5</t>
+  </si>
+  <si>
+    <t>Klimaatinstallatie VG-Z</t>
+  </si>
+  <si>
+    <t>Hoogfrequent installatie (HF-Systeem) EG</t>
+  </si>
+  <si>
+    <t>MTM CT1-W2</t>
+  </si>
+  <si>
+    <t>Openbare verlichting VTTI station 17</t>
+  </si>
+  <si>
+    <t>Telefoon en intercominstallatie VTTI station 9</t>
+  </si>
+  <si>
+    <t>CCTV VTTI station 4</t>
+  </si>
+  <si>
+    <t>(AB CT1-N-04) Busbaan oprit A10</t>
+  </si>
+  <si>
+    <t>MTM VTTI station 3</t>
+  </si>
+  <si>
+    <t>Tunnelverlichting CT2-O1</t>
+  </si>
+  <si>
+    <t>(AB CT2-N-06) A08 Tidal flow 2</t>
+  </si>
+  <si>
+    <t>(AB CT2-Z-01) A10 Tidal flow 1</t>
+  </si>
+  <si>
+    <t>(VEVA CT2-Z-02) A10 28.500 MBR (Tidal flow zuid)</t>
+  </si>
+  <si>
+    <t>Klimaatinstallatie DG-N</t>
+  </si>
+  <si>
+    <t>Geluidsbakeninstallatie CT2-O2 MTK dienstgang</t>
+  </si>
+  <si>
+    <t>(AB CT2-N-02) Dienstweg dienstgebouwen Meteorenweg</t>
+  </si>
+  <si>
+    <t>Brandmeldinstallatie dienstengebouwen CT1 MTK vluchtgang</t>
+  </si>
+  <si>
+    <t>SOS/SDS CT2-O2</t>
+  </si>
+  <si>
+    <t>(CADO CT2-Z-01) A10 29.280 BBR</t>
+  </si>
+  <si>
+    <t>(AB CT2-N-04) A08 Tidal flow 1</t>
+  </si>
+  <si>
+    <t>Brandmeldinstallatie dienstengebouwen DG-Z</t>
+  </si>
+  <si>
+    <t>Brandmeldinstallatie dienstengebouwen DG-N</t>
+  </si>
+  <si>
+    <t>MTM VTTI station 12</t>
+  </si>
+  <si>
+    <t>(CADO CT2-N-03) A10 30.620 z MB</t>
+  </si>
+  <si>
+    <t>Intern transmissienetwerk VTTI station 10B</t>
+  </si>
+  <si>
+    <t>(AB CT1-N-05) Dienstweg dienstgebouwen Coentunnel Circuit</t>
+  </si>
+  <si>
+    <t>Brandblusinstallatie tunnel en hulpposten EG</t>
+  </si>
+  <si>
+    <t>MTM VTTI station 13</t>
+  </si>
+  <si>
+    <t>Brandmeldinstallatie dienstengebouwen CT2 MTK dienstgang</t>
+  </si>
+  <si>
+    <t>CCTV CT2-O1</t>
   </si>
   <si>
     <t>1123</t>
@@ -1478,9 +1442,6 @@
     <t>1393</t>
   </si>
   <si>
-    <t>1002</t>
-  </si>
-  <si>
     <t>1192</t>
   </si>
   <si>
@@ -1523,9 +1484,6 @@
     <t>VTTI station 9, begane grond, verkeersk inst ruimte</t>
   </si>
   <si>
-    <t>CT2</t>
-  </si>
-  <si>
     <t>CT2, buis oost 1, begane grond, element 1</t>
   </si>
   <si>
@@ -1551,9 +1509,6 @@
   </si>
   <si>
     <t>CT2, middentunnelkanaal, niveau 1, dienstgang element 4</t>
-  </si>
-  <si>
-    <t>CT1EN2</t>
   </si>
   <si>
     <t>Lussen vermoedelijk vekeerd om aangesloten</t>
@@ -2992,6 +2947,9 @@
   </si>
   <si>
     <t>29-05-18 05:34:00</t>
+  </si>
+  <si>
+    <t>CT1EN2</t>
   </si>
   <si>
     <t>Storing</t>
@@ -3367,7 +3325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG100"/>
+  <dimension ref="A1:AL100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3384,34 +3342,39 @@
     <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="66.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="66.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="66.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="66.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="53.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="29.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="58.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="66.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="66.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="66.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="66.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="53.7109375" style="1" customWidth="1"/>
     <col min="26" max="26" width="29.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="19.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="19.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="21.7109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="13.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="18.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="29.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="19.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="19.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="19.7109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="21.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="13.7109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:38">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3511,4546 +3474,4429 @@
       <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>134</v>
+        <v>238</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="AE2" s="1" t="b">
+        <v>139</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="AI2" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AL2" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>699</v>
+        <v>239</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="AE3" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>684</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="AI3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>700</v>
+        <v>240</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="AE4" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>685</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="AI4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>137</v>
+        <v>241</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="AE5" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>142</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="AI5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>701</v>
+        <v>406</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="AE6" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>686</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="AI6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>439</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>702</v>
+        <v>484</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="AE7" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>687</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="AI7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>140</v>
+        <v>244</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>600</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="AE8" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>145</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="AI8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>141</v>
+        <v>245</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>601</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="AE9" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>146</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="AI9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>142</v>
+        <v>246</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>602</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="AE10" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>147</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="AI10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>143</v>
+        <v>247</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>603</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="AE11" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>148</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="AI11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>703</v>
+      <c r="I12" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>604</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="AE12" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>688</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="AI12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>145</v>
+        <v>249</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="AE13" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>150</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="AI13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>704</v>
+        <v>485</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="AE14" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>689</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="AI14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>705</v>
+        <v>251</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="AE15" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>690</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="AI15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>410</v>
       </c>
+      <c r="I16" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="M16" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>706</v>
+      <c r="U16" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>608</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="AE16" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
+        <v>691</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="AI16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>149</v>
+      <c r="I17" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="AE17" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
+        <v>154</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="AI17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>150</v>
+      <c r="I18" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="AE18" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
+        <v>155</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="AI18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>151</v>
+      <c r="I19" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="AE19" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
+        <v>156</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="AI19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>412</v>
       </c>
+      <c r="I20" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>707</v>
+        <v>487</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="AE20" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
+        <v>692</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="AI20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>413</v>
       </c>
+      <c r="I21" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>708</v>
+        <v>488</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="AE21" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
+        <v>693</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="AI21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>154</v>
+      <c r="I22" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="AE22" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
+        <v>159</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="AI22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>709</v>
+      <c r="I23" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>615</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="AE23" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
+        <v>694</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="AI23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>710</v>
+        <v>260</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="AE24" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
+        <v>695</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="AI24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>711</v>
+      <c r="I25" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="AE25" s="1" t="b">
+        <v>696</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="AI25" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="AL25" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>712</v>
+        <v>262</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="AE26" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31">
+        <v>697</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="AI26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE27" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="AC27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="AI27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>160</v>
+        <v>416</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>619</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="AE28" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31">
+        <v>165</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="AI28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>713</v>
+        <v>264</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>620</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="AE29" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31">
+        <v>698</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="AI29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>714</v>
+        <v>489</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="AE30" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31">
+        <v>699</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>708</v>
+        <v>266</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>622</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="AE31" s="1" t="b">
+        <v>693</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="AI31" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="AL31" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>715</v>
+        <v>418</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="AE32" s="1" t="b">
+        <v>700</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="AI32" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="AL32" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>716</v>
+        <v>268</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>624</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="AE33" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31">
+        <v>701</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="AI33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>166</v>
+        <v>419</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>625</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="AE34" s="1" t="b">
+        <v>171</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="AI34" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="AL34" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>717</v>
+        <v>270</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>626</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="AE35" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31">
+        <v>702</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="AI35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>168</v>
+        <v>271</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>627</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="AE36" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31">
+        <v>173</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="AI36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38">
       <c r="A37" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>718</v>
+        <v>420</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>628</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="AE37" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31">
+        <v>703</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="AI37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38">
       <c r="A38" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="AE38" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31">
+        <v>273</v>
+      </c>
+      <c r="AI38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>719</v>
+        <v>490</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="AE39" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31">
+        <v>704</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="AI39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>172</v>
+        <v>275</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="AE40" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31">
+        <v>177</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="AI40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38">
       <c r="A41" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>173</v>
+        <v>491</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="AE41" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31">
+        <v>178</v>
+      </c>
+      <c r="AD41" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="AI41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>720</v>
+        <v>277</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="AE42" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31">
+        <v>705</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="AI42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>175</v>
+        <v>423</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="AE43" s="1" t="b">
+        <v>180</v>
+      </c>
+      <c r="AD43" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="AI43" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="AL43" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38">
       <c r="A44" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>721</v>
+        <v>279</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>634</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="AE44" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31">
+        <v>706</v>
+      </c>
+      <c r="AD44" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="AI44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38">
       <c r="A45" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D45" s="1">
         <v>2</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>722</v>
+        <v>280</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>635</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="AE45" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31">
+        <v>707</v>
+      </c>
+      <c r="AD45" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="AI45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38">
       <c r="A46" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D46" s="1">
         <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>723</v>
+        <v>492</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="AE46" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31">
+        <v>708</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="AI46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D47" s="1">
         <v>2</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>211</v>
+        <v>282</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y47" s="1" t="s">
-        <v>724</v>
+        <v>637</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="AE47" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31">
+        <v>709</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="AD47" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="AI47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y48" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z48" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE48" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31">
+        <v>638</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AI48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38">
       <c r="A49" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D49" s="1">
         <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="X49" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y49" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z49" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE49" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31">
+        <v>284</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC49" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD49" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AI49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38">
       <c r="A50" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="X50" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y50" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z50" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE50" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31">
+        <v>285</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD50" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AI50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38">
       <c r="A51" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="W51" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="X51" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y51" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z51" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE51" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31">
+        <v>286</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD51" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AI51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38">
       <c r="A52" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="X52" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y52" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE52" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31">
+        <v>287</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB52" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD52" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AI52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38">
       <c r="A53" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="W53" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y53" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z53" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE53" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31">
+        <v>288</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB53" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC53" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD53" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AI53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D54" s="1">
         <v>2</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y54" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z54" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE54" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31">
+        <v>289</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB54" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD54" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AI54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38">
       <c r="A55" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D55" s="1">
         <v>2</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y55" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE55" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31">
+        <v>290</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC55" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD55" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AI55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>725</v>
+        <v>425</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="AE56" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31">
+        <v>710</v>
+      </c>
+      <c r="AD56" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="AI56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>189</v>
+        <v>292</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="AE57" s="1" t="b">
+        <v>194</v>
+      </c>
+      <c r="AD57" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="AI57" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:31">
+      <c r="AL57" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D58" s="1">
         <v>2</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>726</v>
+        <v>293</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>641</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="AE58" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31">
+        <v>711</v>
+      </c>
+      <c r="AD58" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="AI58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D59" s="1">
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="T59" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>727</v>
+        <v>294</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="AE59" s="1" t="b">
+        <v>712</v>
+      </c>
+      <c r="AD59" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="AI59" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:31">
+      <c r="AL59" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D60" s="1">
         <v>2</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>728</v>
+        <v>426</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>643</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="AE60" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31">
+        <v>713</v>
+      </c>
+      <c r="AD60" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="AI60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38">
       <c r="A61" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D61" s="1">
         <v>2</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="T61" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>729</v>
+        <v>427</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>644</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="AE61" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31">
+        <v>714</v>
+      </c>
+      <c r="AD61" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="AI61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38">
       <c r="A62" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>730</v>
+        <v>426</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>645</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="AE62" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31">
+        <v>715</v>
+      </c>
+      <c r="AD62" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="AI62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38">
       <c r="A63" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>731</v>
+        <v>298</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="AE63" s="1" t="b">
+        <v>716</v>
+      </c>
+      <c r="AD63" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="AI63" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:31">
+      <c r="AL63" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D64" s="1">
         <v>2</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>731</v>
+        <v>299</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>647</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="AE64" s="1" t="b">
+        <v>716</v>
+      </c>
+      <c r="AD64" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="AI64" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="AL64" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38">
       <c r="A65" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D65" s="1">
         <v>2</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>732</v>
+        <v>426</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="AE65" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31">
+        <v>717</v>
+      </c>
+      <c r="AD65" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="AI65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38">
       <c r="A66" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D66" s="1">
         <v>2</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>733</v>
+        <v>301</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="AE66" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31">
+        <v>718</v>
+      </c>
+      <c r="AD66" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="AI66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38">
       <c r="A67" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D67" s="1">
         <v>2</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>734</v>
+        <v>491</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="AE67" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31">
+        <v>719</v>
+      </c>
+      <c r="AD67" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="AI67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38">
       <c r="A68" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D68" s="1">
         <v>2</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="T68" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="V68" s="1" t="s">
-        <v>735</v>
+        <v>303</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>651</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="AE68" s="1" t="b">
+        <v>720</v>
+      </c>
+      <c r="AD68" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="AI68" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="AL68" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D69" s="1">
         <v>2</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="T69" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="V69" s="1" t="s">
-        <v>736</v>
+        <v>493</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="Z69" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="AE69" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31">
+        <v>721</v>
+      </c>
+      <c r="AD69" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="AI69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38">
       <c r="A70" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="T70" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="V70" s="1" t="s">
-        <v>737</v>
+        <v>305</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="AE70" s="1" t="b">
+        <v>722</v>
+      </c>
+      <c r="AD70" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="AI70" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="AL70" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38">
       <c r="A71" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D71" s="1">
         <v>2</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="T71" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="V71" s="1" t="s">
-        <v>738</v>
+        <v>426</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="AE71" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31">
+        <v>723</v>
+      </c>
+      <c r="AD71" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="AI71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38">
       <c r="A72" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D72" s="1">
         <v>2</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="T72" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="V72" s="1" t="s">
-        <v>204</v>
+        <v>307</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>655</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="AE72" s="1" t="b">
+        <v>209</v>
+      </c>
+      <c r="AD72" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="AI72" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:31">
+      <c r="AL72" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38">
       <c r="A73" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D73" s="1">
         <v>2</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>441</v>
+        <v>429</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="T73" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>739</v>
+        <v>494</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>656</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="AE73" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31">
+        <v>724</v>
+      </c>
+      <c r="AD73" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="AI73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38">
       <c r="A74" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D74" s="1">
         <v>2</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="V74" s="1" t="s">
-        <v>206</v>
+        <v>406</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>657</v>
       </c>
       <c r="Z74" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="AE74" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31">
+        <v>211</v>
+      </c>
+      <c r="AD74" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="AI74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38">
       <c r="A75" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D75" s="1">
         <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="T75" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>740</v>
+        <v>310</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>658</v>
       </c>
       <c r="Z75" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="AE75" s="1" t="b">
+        <v>725</v>
+      </c>
+      <c r="AD75" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="AI75" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:31">
+      <c r="AL75" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38">
       <c r="A76" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D76" s="1">
         <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="T76" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="V76" s="1" t="s">
-        <v>741</v>
+        <v>430</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>659</v>
       </c>
       <c r="Z76" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="AE76" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31">
+        <v>726</v>
+      </c>
+      <c r="AD76" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="AI76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38">
       <c r="A77" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D77" s="1">
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="T77" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="V77" s="1" t="s">
-        <v>742</v>
+        <v>431</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="Z77" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="AE77" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31">
+        <v>727</v>
+      </c>
+      <c r="AD77" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="AI77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38">
       <c r="A78" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D78" s="1">
         <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>443</v>
+        <v>432</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="T78" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="V78" s="1" t="s">
-        <v>743</v>
+        <v>495</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="AE78" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31">
+        <v>728</v>
+      </c>
+      <c r="AD78" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="AI78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38">
       <c r="A79" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D79" s="1">
         <v>3</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="T79" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="V79" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="W79" s="1" t="s">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y79" s="1" t="s">
-        <v>211</v>
+        <v>662</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="AE79" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31">
+        <v>216</v>
+      </c>
+      <c r="AA79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD79" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="AI79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38">
       <c r="A80" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D80" s="1">
         <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="T80" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="V80" s="1" t="s">
-        <v>212</v>
+        <v>433</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="Z80" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="AE80" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31">
+        <v>217</v>
+      </c>
+      <c r="AD80" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="AI80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38">
       <c r="A81" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D81" s="1">
         <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>446</v>
+        <v>434</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="T81" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="V81" s="1" t="s">
-        <v>744</v>
+        <v>496</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>664</v>
       </c>
       <c r="Z81" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="AE81" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:31">
+        <v>729</v>
+      </c>
+      <c r="AD81" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="AI81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38">
       <c r="A82" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D82" s="1">
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="T82" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="V82" s="1" t="s">
-        <v>745</v>
+        <v>317</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="X82" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="AE82" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:31">
+        <v>730</v>
+      </c>
+      <c r="AD82" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="AI82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38">
       <c r="A83" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D83" s="1">
         <v>3</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="T83" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="V83" s="1" t="s">
-        <v>746</v>
+        <v>418</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>666</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="AE83" s="1" t="b">
+        <v>731</v>
+      </c>
+      <c r="AD83" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="AI83" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:31">
+      <c r="AL83" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38">
       <c r="A84" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D84" s="1">
         <v>3</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="T84" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="V84" s="1" t="s">
-        <v>747</v>
+        <v>319</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>667</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="AE84" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31">
+        <v>732</v>
+      </c>
+      <c r="AD84" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="AI84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL84" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38">
       <c r="A85" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D85" s="1">
         <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="T85" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="V85" s="1" t="s">
-        <v>748</v>
+        <v>320</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="AE85" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31">
+        <v>733</v>
+      </c>
+      <c r="AD85" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="AI85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38">
       <c r="A86" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D86" s="1">
         <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="T86" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="V86" s="1" t="s">
-        <v>749</v>
+        <v>321</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="X86" s="1" t="s">
+        <v>669</v>
       </c>
       <c r="Z86" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="AE86" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31">
+        <v>734</v>
+      </c>
+      <c r="AD86" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="AI86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL86" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38">
       <c r="A87" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D87" s="1">
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="T87" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="V87" s="1" t="s">
-        <v>750</v>
+        <v>322</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>670</v>
       </c>
       <c r="Z87" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="AE87" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31">
+        <v>735</v>
+      </c>
+      <c r="AD87" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="AI87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL87" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38">
       <c r="A88" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D88" s="1">
         <v>3</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="T88" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="V88" s="1" t="s">
-        <v>220</v>
+        <v>323</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="AE88" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31">
+        <v>225</v>
+      </c>
+      <c r="AD88" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="AI88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38">
       <c r="A89" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D89" s="1">
         <v>3</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="T89" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="V89" s="1" t="s">
-        <v>751</v>
+        <v>435</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="X89" s="1" t="s">
+        <v>672</v>
       </c>
       <c r="Z89" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="AE89" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:31">
+        <v>736</v>
+      </c>
+      <c r="AD89" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="AI89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL89" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38">
       <c r="A90" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D90" s="1">
         <v>3</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="T90" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V90" s="1" t="s">
-        <v>752</v>
+        <v>425</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="U90" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>673</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="AE90" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31">
+        <v>737</v>
+      </c>
+      <c r="AD90" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="AI90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL90" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38">
       <c r="A91" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D91" s="1">
         <v>3</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="T91" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="V91" s="1" t="s">
-        <v>753</v>
+        <v>326</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>674</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="AE91" s="1" t="b">
+        <v>738</v>
+      </c>
+      <c r="AD91" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="AI91" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:31">
+      <c r="AL91" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38">
       <c r="A92" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D92" s="1">
         <v>3</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>449</v>
+        <v>436</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="T92" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="V92" s="1" t="s">
-        <v>754</v>
+        <v>497</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>675</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="AE92" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:31">
+        <v>739</v>
+      </c>
+      <c r="AD92" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="AI92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL92" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38">
       <c r="A93" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D93" s="1">
         <v>3</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="T93" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V93" s="1" t="s">
-        <v>755</v>
+        <v>328</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="X93" s="1" t="s">
+        <v>676</v>
       </c>
       <c r="Z93" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="AE93" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:31">
+        <v>740</v>
+      </c>
+      <c r="AD93" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="AI93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38">
       <c r="A94" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="T94" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="V94" s="1" t="s">
-        <v>756</v>
+        <v>329</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>677</v>
       </c>
       <c r="Z94" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="AE94" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:31">
+        <v>741</v>
+      </c>
+      <c r="AD94" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="AI94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38">
       <c r="A95" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D95" s="1">
         <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="T95" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="V95" s="1" t="s">
-        <v>757</v>
+        <v>330</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="X95" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="AE95" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:31">
+        <v>742</v>
+      </c>
+      <c r="AD95" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="AI95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38">
       <c r="A96" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D96" s="1">
         <v>3</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="T96" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="V96" s="1" t="s">
-        <v>758</v>
+        <v>331</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="X96" s="1" t="s">
+        <v>679</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="AE96" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:31">
+        <v>743</v>
+      </c>
+      <c r="AD96" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="AI96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL96" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38">
       <c r="A97" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D97" s="1">
         <v>3</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="T97" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="V97" s="1" t="s">
-        <v>759</v>
+        <v>489</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="X97" s="1" t="s">
+        <v>680</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="AE97" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:31">
+        <v>744</v>
+      </c>
+      <c r="AD97" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="AI97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL97" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38">
       <c r="A98" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D98" s="1">
         <v>3</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="T98" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="V98" s="1" t="s">
-        <v>760</v>
+        <v>333</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="X98" s="1" t="s">
+        <v>681</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="AE98" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:31">
+        <v>745</v>
+      </c>
+      <c r="AD98" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="AI98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL98" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38">
       <c r="A99" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="T99" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="V99" s="1" t="s">
-        <v>761</v>
+        <v>427</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="X99" s="1" t="s">
+        <v>682</v>
       </c>
       <c r="Z99" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="AE99" s="1" t="b">
+        <v>746</v>
+      </c>
+      <c r="AD99" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="AI99" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:31">
+      <c r="AL99" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38">
       <c r="A100" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D100" s="1">
         <v>3</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="T100" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="V100" s="1" t="s">
-        <v>762</v>
+        <v>335</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="X100" s="1" t="s">
+        <v>683</v>
       </c>
       <c r="Z100" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="AE100" s="1" t="b">
-        <v>0</v>
+        <v>747</v>
+      </c>
+      <c r="AD100" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="AI100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL100" s="1" t="s">
+        <v>837</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="99">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U7">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U9">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U10">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U11">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U12">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U13">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U14">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U15">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U16">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U17">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U18">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U19">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U20">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U21">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U22">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U23">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U24">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U25">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U26">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U27">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U28">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U29">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U30">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U31">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U32">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U33">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U34">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U35">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U36">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U37">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U38">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U39">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U40">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U41">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U42">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U43">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U44">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U45">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U46">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U47">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U48">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U49">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U50">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U51">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U52">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U53">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U54">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U55">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U56">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U57">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U58">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U59">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U60">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U61">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U62">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U63">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U64">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U65">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U66">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U67">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U68">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U69">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U70">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U71">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U72">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U73">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U74">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U75">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U76">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U77">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U78">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U79">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U80">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U81">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U82">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U83">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U84">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U85">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U86">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U87">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U88">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U89">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U90">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U91">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U92">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U93">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U94">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U95">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U96">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U97">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U98">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U99">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y5">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y8">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y9">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y10">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y11">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y12">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y13">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y14">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y15">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y16">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y17">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y18">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y19">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y20">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y21">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y22">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y23">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y24">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y25">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y26">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y27">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y28">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y29">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y30">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y31">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y32">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y33">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y34">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y35">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y36">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y37">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y38">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y39">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y40">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y41">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y42">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y43">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y44">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y45">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y46">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y47">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y48">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y49">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y50">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y51">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y52">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y53">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y54">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y55">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y56">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y57">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y58">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y59">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y60">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y61">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y62">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y63">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y64">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y65">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y66">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y67">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y68">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y69">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y70">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y71">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y72">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y73">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y74">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y75">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y76">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y77">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y78">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y79">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y80">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y81">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y82">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y83">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y84">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y85">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y86">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y87">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y88">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y89">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y90">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y91">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y92">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y93">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y94">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y95">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y96">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y97">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y98">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y99">
+      <formula1>Backend!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y100">
       <formula1>Backend!$A$1:$A$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -8068,27 +7914,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>

--- a/src/staging file/test_w_list.xlsx
+++ b/src/staging file/test_w_list.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tbiholding-my.sharepoint.com/personal/nilan_bais_croonwolterendros_nl/Documents/Documenten/GitHub/storingsanalyse-generator/src/staging file/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_6FE6AA986EB370368FF0AF3A89591DF67E67FB60" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-3165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Backend" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2970,8 +2976,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3033,15 +3039,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3083,7 +3097,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3115,9 +3129,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3149,6 +3181,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3324,57 +3374,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="66.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="58.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="66.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="66.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="66.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="66.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="53.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="29.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="18.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="18.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="18.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="29.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="19.7109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="19.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="20.7109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="19.7109375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="21.7109375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="13.7109375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="66.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="66.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="58.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="66.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="66.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="66.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="66.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="53.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="29.6640625" style="1" customWidth="1"/>
+    <col min="27" max="29" width="18.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="29.6640625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="19.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="20.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="19.6640625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="21.6640625" style="1" customWidth="1"/>
+    <col min="36" max="37" width="13.6640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3490,7 +3536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -3528,7 +3574,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -3563,7 +3609,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -3601,7 +3647,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -3636,7 +3682,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -3683,7 +3729,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -3736,7 +3782,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -3771,7 +3817,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -3806,7 +3852,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -3841,7 +3887,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -3879,7 +3925,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -3926,7 +3972,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -3961,7 +4007,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -4014,7 +4060,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -4049,7 +4095,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -4105,7 +4151,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -4152,7 +4198,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -4199,7 +4245,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -4246,7 +4292,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -4299,7 +4345,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
@@ -4352,7 +4398,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
@@ -4399,7 +4445,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -4446,7 +4492,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -4481,7 +4527,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -4531,7 +4577,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -4566,7 +4612,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
@@ -4592,7 +4638,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
@@ -4639,7 +4685,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -4677,7 +4723,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -4730,7 +4776,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
@@ -4765,7 +4811,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -4812,7 +4858,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -4847,7 +4893,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
@@ -4894,7 +4940,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -4932,7 +4978,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -4970,7 +5016,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
@@ -5020,7 +5066,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -5043,7 +5089,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
@@ -5096,7 +5142,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,7 +5177,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
@@ -5184,7 +5230,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
@@ -5219,7 +5265,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
@@ -5266,7 +5312,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
@@ -5301,7 +5347,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
@@ -5336,7 +5382,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
@@ -5389,7 +5435,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>83</v>
       </c>
@@ -5430,7 +5476,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>84</v>
       </c>
@@ -5468,7 +5514,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
@@ -5503,7 +5549,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
@@ -5538,7 +5584,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
@@ -5573,7 +5619,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>88</v>
       </c>
@@ -5608,7 +5654,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
@@ -5643,7 +5689,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>90</v>
       </c>
@@ -5678,7 +5724,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>91</v>
       </c>
@@ -5713,7 +5759,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>92</v>
       </c>
@@ -5760,7 +5806,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
@@ -5795,7 +5841,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
@@ -5830,7 +5876,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>95</v>
       </c>
@@ -5865,7 +5911,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>96</v>
       </c>
@@ -5912,7 +5958,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>97</v>
       </c>
@@ -5959,7 +6005,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>98</v>
       </c>
@@ -6009,7 +6055,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>99</v>
       </c>
@@ -6044,7 +6090,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>100</v>
       </c>
@@ -6079,7 +6125,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>101</v>
       </c>
@@ -6129,7 +6175,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>102</v>
       </c>
@@ -6164,7 +6210,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>103</v>
       </c>
@@ -6217,7 +6263,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>104</v>
       </c>
@@ -6252,7 +6298,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>105</v>
       </c>
@@ -6305,7 +6351,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>106</v>
       </c>
@@ -6340,7 +6386,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>107</v>
       </c>
@@ -6387,7 +6433,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>108</v>
       </c>
@@ -6422,7 +6468,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>109</v>
       </c>
@@ -6475,7 +6521,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>110</v>
       </c>
@@ -6522,7 +6568,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>111</v>
       </c>
@@ -6560,7 +6606,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>112</v>
       </c>
@@ -6607,7 +6653,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>113</v>
       </c>
@@ -6654,7 +6700,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>114</v>
       </c>
@@ -6707,7 +6753,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>115</v>
       </c>
@@ -6748,7 +6794,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>116</v>
       </c>
@@ -6795,7 +6841,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>117</v>
       </c>
@@ -6848,7 +6894,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>118</v>
       </c>
@@ -6883,7 +6929,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>119</v>
       </c>
@@ -6930,7 +6976,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>120</v>
       </c>
@@ -6965,7 +7011,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>121</v>
       </c>
@@ -7000,7 +7046,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>122</v>
       </c>
@@ -7035,7 +7081,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>123</v>
       </c>
@@ -7070,7 +7116,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>124</v>
       </c>
@@ -7105,7 +7151,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>125</v>
       </c>
@@ -7152,7 +7198,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>126</v>
       </c>
@@ -7202,7 +7248,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>127</v>
       </c>
@@ -7237,7 +7283,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>128</v>
       </c>
@@ -7290,7 +7336,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>129</v>
       </c>
@@ -7325,7 +7371,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>130</v>
       </c>
@@ -7360,7 +7406,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>131</v>
       </c>
@@ -7395,7 +7441,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>132</v>
       </c>
@@ -7430,7 +7476,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="97" spans="1:38">
+    <row r="97" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>133</v>
       </c>
@@ -7483,7 +7529,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="98" spans="1:38">
+    <row r="98" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>134</v>
       </c>
@@ -7518,7 +7564,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="99" spans="1:38">
+    <row r="99" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>135</v>
       </c>
@@ -7565,7 +7611,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="100" spans="1:38">
+    <row r="100" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>136</v>
       </c>
@@ -7601,338 +7647,51 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="99">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y5">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y8">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y9">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y10">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y11">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y12">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y13">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y14">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y15">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y16">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y17">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y18">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y19">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y20">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y21">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y22">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y23">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y24">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y25">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y26">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y27">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y28">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y29">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y30">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y31">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y32">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y33">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y34">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y35">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y36">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y37">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y38">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y39">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y40">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y41">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y42">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y43">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y44">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y45">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y46">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y47">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y48">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y49">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y50">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y51">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y52">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y53">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y54">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y55">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y56">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y57">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y58">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y59">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y60">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y61">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y62">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y63">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y64">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y65">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y66">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y67">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y68">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y69">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y70">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y71">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y72">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y73">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y74">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y75">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y76">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y77">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y78">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y79">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y80">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y81">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y82">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y83">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y84">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y85">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y86">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y87">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y88">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y89">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y90">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y91">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y92">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y93">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y94">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y95">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y96">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y97">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y98">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y99">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y100">
-      <formula1>Backend!$A$1:$A$5</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Backend!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>Y2:Y100</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>842</v>
       </c>
